--- a/Data/3_County_241.xlsx
+++ b/Data/3_County_241.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinacui/Desktop/UCSB/Statistics &amp; Data Science/PSTAT 197/capstone-project2035/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C44CF8-BE4F-504A-B094-8DF4533E34B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3071F9-DE42-DA4B-B616-D6D385CABF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="1540" windowWidth="27240" windowHeight="16440" xr2:uid="{CB4D320D-ABA6-D944-9B39-A6F9DBE8B1D6}"/>
+    <workbookView xWindow="3200" yWindow="1540" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{CB4D320D-ABA6-D944-9B39-A6F9DBE8B1D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="241" sheetId="1" r:id="rId1"/>
+    <sheet name="242" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="43">
   <si>
     <t>Year</t>
   </si>
@@ -162,6 +163,9 @@
   </si>
   <si>
     <t>Ventura County, California</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -552,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AED0D86-82CB-6243-A6B6-AB520759B5E7}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -3102,4 +3106,2557 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EF70F4-D1A9-4A42-A616-FBD26FB7BB31}">
+  <dimension ref="A1:P54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="5">
+        <v>11844</v>
+      </c>
+      <c r="J1" s="5">
+        <v>121889</v>
+      </c>
+      <c r="K1" s="5">
+        <v>123536</v>
+      </c>
+      <c r="L1" s="5">
+        <v>122618</v>
+      </c>
+      <c r="M1" s="5">
+        <v>1851439297</v>
+      </c>
+      <c r="N1" s="5">
+        <v>1161</v>
+      </c>
+      <c r="O1" s="6">
+        <v>1</v>
+      </c>
+      <c r="P1" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5">
+        <v>597</v>
+      </c>
+      <c r="K2" s="5">
+        <v>607</v>
+      </c>
+      <c r="L2" s="5">
+        <v>608</v>
+      </c>
+      <c r="M2" s="5">
+        <v>11563262</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1473</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="5">
+        <v>296</v>
+      </c>
+      <c r="J3" s="5">
+        <v>9549</v>
+      </c>
+      <c r="K3" s="5">
+        <v>9460</v>
+      </c>
+      <c r="L3" s="5">
+        <v>9392</v>
+      </c>
+      <c r="M3" s="5">
+        <v>194671320</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1582</v>
+      </c>
+      <c r="O3" s="6">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="P3" s="6">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="5">
+        <v>208</v>
+      </c>
+      <c r="J4" s="5">
+        <v>12087</v>
+      </c>
+      <c r="K4" s="5">
+        <v>12199</v>
+      </c>
+      <c r="L4" s="5">
+        <v>12133</v>
+      </c>
+      <c r="M4" s="5">
+        <v>219671582</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1392</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="5">
+        <v>11304</v>
+      </c>
+      <c r="J5" s="5">
+        <v>99656</v>
+      </c>
+      <c r="K5" s="5">
+        <v>101270</v>
+      </c>
+      <c r="L5" s="5">
+        <v>100485</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1425533133</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1091</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2076</v>
+      </c>
+      <c r="J6" s="5">
+        <v>22667</v>
+      </c>
+      <c r="K6" s="5">
+        <v>23501</v>
+      </c>
+      <c r="L6" s="5">
+        <v>23415</v>
+      </c>
+      <c r="M6" s="5">
+        <v>362123995</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1201</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1.29</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="5">
+        <v>319</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5805</v>
+      </c>
+      <c r="K7" s="5">
+        <v>6420</v>
+      </c>
+      <c r="L7" s="5">
+        <v>6156</v>
+      </c>
+      <c r="M7" s="5">
+        <v>63495225</v>
+      </c>
+      <c r="N7" s="5">
+        <v>797</v>
+      </c>
+      <c r="O7" s="6">
+        <v>4.04</v>
+      </c>
+      <c r="P7" s="6">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1215</v>
+      </c>
+      <c r="J8" s="5">
+        <v>8644</v>
+      </c>
+      <c r="K8" s="5">
+        <v>8748</v>
+      </c>
+      <c r="L8" s="5">
+        <v>8883</v>
+      </c>
+      <c r="M8" s="5">
+        <v>163884776</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1439</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1.36</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="5">
+        <v>542</v>
+      </c>
+      <c r="J9" s="5">
+        <v>8218</v>
+      </c>
+      <c r="K9" s="5">
+        <v>8333</v>
+      </c>
+      <c r="L9" s="5">
+        <v>8376</v>
+      </c>
+      <c r="M9" s="5">
+        <v>134743994</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1247</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="5">
+        <v>9228</v>
+      </c>
+      <c r="J10" s="5">
+        <v>76989</v>
+      </c>
+      <c r="K10" s="5">
+        <v>77769</v>
+      </c>
+      <c r="L10" s="5">
+        <v>77070</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1063409138</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1059</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1469</v>
+      </c>
+      <c r="J11" s="5">
+        <v>20091</v>
+      </c>
+      <c r="K11" s="5">
+        <v>20022</v>
+      </c>
+      <c r="L11" s="5">
+        <v>19507</v>
+      </c>
+      <c r="M11" s="5">
+        <v>335124419</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1297</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5">
+        <v>113</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1098</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1107</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1104</v>
+      </c>
+      <c r="M12" s="5">
+        <v>32150600</v>
+      </c>
+      <c r="N12" s="5">
+        <v>2242</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="5">
+        <v>912</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3663</v>
+      </c>
+      <c r="K13" s="5">
+        <v>3683</v>
+      </c>
+      <c r="L13" s="5">
+        <v>3696</v>
+      </c>
+      <c r="M13" s="5">
+        <v>65433560</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1368</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1646</v>
+      </c>
+      <c r="J14" s="5">
+        <v>10563</v>
+      </c>
+      <c r="K14" s="5">
+        <v>10466</v>
+      </c>
+      <c r="L14" s="5">
+        <v>10454</v>
+      </c>
+      <c r="M14" s="5">
+        <v>190785002</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1398</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3146</v>
+      </c>
+      <c r="J15" s="5">
+        <v>17816</v>
+      </c>
+      <c r="K15" s="5">
+        <v>17965</v>
+      </c>
+      <c r="L15" s="5">
+        <v>17546</v>
+      </c>
+      <c r="M15" s="5">
+        <v>248769406</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1077</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1201</v>
+      </c>
+      <c r="J16" s="5">
+        <v>19806</v>
+      </c>
+      <c r="K16" s="5">
+        <v>20418</v>
+      </c>
+      <c r="L16" s="5">
+        <v>20802</v>
+      </c>
+      <c r="M16" s="5">
+        <v>150458470</v>
+      </c>
+      <c r="N16" s="5">
+        <v>569</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="5">
+        <v>736</v>
+      </c>
+      <c r="J17" s="5">
+        <v>3947</v>
+      </c>
+      <c r="K17" s="5">
+        <v>4103</v>
+      </c>
+      <c r="L17" s="5">
+        <v>3956</v>
+      </c>
+      <c r="M17" s="5">
+        <v>40606031</v>
+      </c>
+      <c r="N17" s="5">
+        <v>780</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1.06</v>
+      </c>
+      <c r="P17" s="6">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="5">
+        <v>5</v>
+      </c>
+      <c r="J18" s="5">
+        <v>5</v>
+      </c>
+      <c r="K18" s="5">
+        <v>5</v>
+      </c>
+      <c r="L18" s="5">
+        <v>5</v>
+      </c>
+      <c r="M18" s="5">
+        <v>81650</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1256</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="5">
+        <v>17757</v>
+      </c>
+      <c r="J19" s="5">
+        <v>216911</v>
+      </c>
+      <c r="K19" s="5">
+        <v>221826</v>
+      </c>
+      <c r="L19" s="5">
+        <v>222411</v>
+      </c>
+      <c r="M19" s="5">
+        <v>3718200873</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1298</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="5">
+        <v>72</v>
+      </c>
+      <c r="J20" s="5">
+        <v>4048</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4073</v>
+      </c>
+      <c r="L20" s="5">
+        <v>4049</v>
+      </c>
+      <c r="M20" s="5">
+        <v>77458392</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1469</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="5">
+        <v>30</v>
+      </c>
+      <c r="J21" s="5">
+        <v>6045</v>
+      </c>
+      <c r="K21" s="5">
+        <v>6065</v>
+      </c>
+      <c r="L21" s="5">
+        <v>6137</v>
+      </c>
+      <c r="M21" s="5">
+        <v>147643925</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1867</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="5">
+        <v>282</v>
+      </c>
+      <c r="J22" s="5">
+        <v>25965</v>
+      </c>
+      <c r="K22" s="5">
+        <v>26339</v>
+      </c>
+      <c r="L22" s="5">
+        <v>25804</v>
+      </c>
+      <c r="M22" s="5">
+        <v>485611607</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1435</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1.24</v>
+      </c>
+      <c r="P22" s="6">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="5">
+        <v>17373</v>
+      </c>
+      <c r="J23" s="5">
+        <v>180853</v>
+      </c>
+      <c r="K23" s="5">
+        <v>185349</v>
+      </c>
+      <c r="L23" s="5">
+        <v>186421</v>
+      </c>
+      <c r="M23" s="5">
+        <v>3007486949</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1256</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2637</v>
+      </c>
+      <c r="J24" s="5">
+        <v>53479</v>
+      </c>
+      <c r="K24" s="5">
+        <v>57603</v>
+      </c>
+      <c r="L24" s="5">
+        <v>59226</v>
+      </c>
+      <c r="M24" s="5">
+        <v>842898437</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1142</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="P24" s="6">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="5">
+        <v>623</v>
+      </c>
+      <c r="J25" s="5">
+        <v>30820</v>
+      </c>
+      <c r="K25" s="5">
+        <v>34992</v>
+      </c>
+      <c r="L25" s="5">
+        <v>36344</v>
+      </c>
+      <c r="M25" s="5">
+        <v>362441106</v>
+      </c>
+      <c r="N25" s="5">
+        <v>819</v>
+      </c>
+      <c r="O25" s="6">
+        <v>13.13</v>
+      </c>
+      <c r="P25" s="6">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1407</v>
+      </c>
+      <c r="J26" s="5">
+        <v>10089</v>
+      </c>
+      <c r="K26" s="5">
+        <v>10092</v>
+      </c>
+      <c r="L26" s="5">
+        <v>10223</v>
+      </c>
+      <c r="M26" s="5">
+        <v>177950590</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1351</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="5">
+        <v>607</v>
+      </c>
+      <c r="J27" s="5">
+        <v>12570</v>
+      </c>
+      <c r="K27" s="5">
+        <v>12519</v>
+      </c>
+      <c r="L27" s="5">
+        <v>12659</v>
+      </c>
+      <c r="M27" s="5">
+        <v>302506741</v>
+      </c>
+      <c r="N27" s="5">
+        <v>1849</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="5">
+        <v>14736</v>
+      </c>
+      <c r="J28" s="5">
+        <v>127374</v>
+      </c>
+      <c r="K28" s="5">
+        <v>127746</v>
+      </c>
+      <c r="L28" s="5">
+        <v>127195</v>
+      </c>
+      <c r="M28" s="5">
+        <v>2164588512</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1307</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2196</v>
+      </c>
+      <c r="J29" s="5">
+        <v>26550</v>
+      </c>
+      <c r="K29" s="5">
+        <v>26559</v>
+      </c>
+      <c r="L29" s="5">
+        <v>26343</v>
+      </c>
+      <c r="M29" s="5">
+        <v>368140289</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1069</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="5">
+        <v>229</v>
+      </c>
+      <c r="J30" s="5">
+        <v>3733</v>
+      </c>
+      <c r="K30" s="5">
+        <v>3759</v>
+      </c>
+      <c r="L30" s="5">
+        <v>3723</v>
+      </c>
+      <c r="M30" s="5">
+        <v>127874266</v>
+      </c>
+      <c r="N30" s="5">
+        <v>2631</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1428</v>
+      </c>
+      <c r="J31" s="5">
+        <v>6890</v>
+      </c>
+      <c r="K31" s="5">
+        <v>6867</v>
+      </c>
+      <c r="L31" s="5">
+        <v>6833</v>
+      </c>
+      <c r="M31" s="5">
+        <v>155947833</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1748</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="5">
+        <v>2582</v>
+      </c>
+      <c r="J32" s="5">
+        <v>23686</v>
+      </c>
+      <c r="K32" s="5">
+        <v>23655</v>
+      </c>
+      <c r="L32" s="5">
+        <v>23597</v>
+      </c>
+      <c r="M32" s="5">
+        <v>663769197</v>
+      </c>
+      <c r="N32" s="5">
+        <v>2159</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="5">
+        <v>5429</v>
+      </c>
+      <c r="J33" s="5">
+        <v>31133</v>
+      </c>
+      <c r="K33" s="5">
+        <v>31184</v>
+      </c>
+      <c r="L33" s="5">
+        <v>30942</v>
+      </c>
+      <c r="M33" s="5">
+        <v>516795339</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1279</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1526</v>
+      </c>
+      <c r="J34" s="5">
+        <v>28580</v>
+      </c>
+      <c r="K34" s="5">
+        <v>28894</v>
+      </c>
+      <c r="L34" s="5">
+        <v>28950</v>
+      </c>
+      <c r="M34" s="5">
+        <v>249647259</v>
+      </c>
+      <c r="N34" s="5">
+        <v>667</v>
+      </c>
+      <c r="O34" s="6">
+        <v>1.17</v>
+      </c>
+      <c r="P34" s="6">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1340</v>
+      </c>
+      <c r="J35" s="5">
+        <v>6793</v>
+      </c>
+      <c r="K35" s="5">
+        <v>6819</v>
+      </c>
+      <c r="L35" s="5">
+        <v>6799</v>
+      </c>
+      <c r="M35" s="5">
+        <v>82298296</v>
+      </c>
+      <c r="N35" s="5">
+        <v>930</v>
+      </c>
+      <c r="O35" s="6">
+        <v>1.01</v>
+      </c>
+      <c r="P35" s="6">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="5">
+        <v>6</v>
+      </c>
+      <c r="J36" s="5">
+        <v>9</v>
+      </c>
+      <c r="K36" s="5">
+        <v>9</v>
+      </c>
+      <c r="L36" s="5">
+        <v>8</v>
+      </c>
+      <c r="M36" s="5">
+        <v>116033</v>
+      </c>
+      <c r="N36" s="5">
+        <v>1030</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="5">
+        <v>31988</v>
+      </c>
+      <c r="J37" s="5">
+        <v>339413</v>
+      </c>
+      <c r="K37" s="5">
+        <v>340417</v>
+      </c>
+      <c r="L37" s="5">
+        <v>339080</v>
+      </c>
+      <c r="M37" s="5">
+        <v>5779393309</v>
+      </c>
+      <c r="N37" s="5">
+        <v>1309</v>
+      </c>
+      <c r="O37" s="6">
+        <v>1</v>
+      </c>
+      <c r="P37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="5">
+        <v>64</v>
+      </c>
+      <c r="J38" s="5">
+        <v>7503</v>
+      </c>
+      <c r="K38" s="5">
+        <v>7543</v>
+      </c>
+      <c r="L38" s="5">
+        <v>7568</v>
+      </c>
+      <c r="M38" s="5">
+        <v>190466644</v>
+      </c>
+      <c r="N38" s="5">
+        <v>1944</v>
+      </c>
+      <c r="O38" s="6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="P38" s="6">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="5">
+        <v>109</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1778</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1828</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1837</v>
+      </c>
+      <c r="M39" s="5">
+        <v>37041841</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1570</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="5">
+        <v>362</v>
+      </c>
+      <c r="J40" s="5">
+        <v>38306</v>
+      </c>
+      <c r="K40" s="5">
+        <v>38768</v>
+      </c>
+      <c r="L40" s="5">
+        <v>38566</v>
+      </c>
+      <c r="M40" s="5">
+        <v>826116877</v>
+      </c>
+      <c r="N40" s="5">
+        <v>1649</v>
+      </c>
+      <c r="O40" s="6">
+        <v>1.21</v>
+      </c>
+      <c r="P40" s="6">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="5">
+        <v>31453</v>
+      </c>
+      <c r="J41" s="5">
+        <v>291826</v>
+      </c>
+      <c r="K41" s="5">
+        <v>292278</v>
+      </c>
+      <c r="L41" s="5">
+        <v>291109</v>
+      </c>
+      <c r="M41" s="5">
+        <v>4725767947</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1246</v>
+      </c>
+      <c r="O41" s="6">
+        <v>1</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="5">
+        <v>4267</v>
+      </c>
+      <c r="J42" s="5">
+        <v>74733</v>
+      </c>
+      <c r="K42" s="5">
+        <v>75278</v>
+      </c>
+      <c r="L42" s="5">
+        <v>75036</v>
+      </c>
+      <c r="M42" s="5">
+        <v>1239735783</v>
+      </c>
+      <c r="N42" s="5">
+        <v>1271</v>
+      </c>
+      <c r="O42" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="P42" s="6">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="5">
+        <v>641</v>
+      </c>
+      <c r="J43" s="5">
+        <v>29721</v>
+      </c>
+      <c r="K43" s="5">
+        <v>30278</v>
+      </c>
+      <c r="L43" s="5">
+        <v>29988</v>
+      </c>
+      <c r="M43" s="5">
+        <v>365095773</v>
+      </c>
+      <c r="N43" s="5">
+        <v>936</v>
+      </c>
+      <c r="O43" s="6">
+        <v>7.11</v>
+      </c>
+      <c r="P43" s="6">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="5">
+        <v>2581</v>
+      </c>
+      <c r="J44" s="5">
+        <v>17707</v>
+      </c>
+      <c r="K44" s="5">
+        <v>17742</v>
+      </c>
+      <c r="L44" s="5">
+        <v>17813</v>
+      </c>
+      <c r="M44" s="5">
+        <v>326991703</v>
+      </c>
+      <c r="N44" s="5">
+        <v>1417</v>
+      </c>
+      <c r="O44" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="P44" s="6">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1045</v>
+      </c>
+      <c r="J45" s="5">
+        <v>27305</v>
+      </c>
+      <c r="K45" s="5">
+        <v>27258</v>
+      </c>
+      <c r="L45" s="5">
+        <v>27235</v>
+      </c>
+      <c r="M45" s="5">
+        <v>547648307</v>
+      </c>
+      <c r="N45" s="5">
+        <v>1545</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="P45" s="6">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="5">
+        <v>27186</v>
+      </c>
+      <c r="J46" s="5">
+        <v>217093</v>
+      </c>
+      <c r="K46" s="5">
+        <v>217000</v>
+      </c>
+      <c r="L46" s="5">
+        <v>216073</v>
+      </c>
+      <c r="M46" s="5">
+        <v>3486032164</v>
+      </c>
+      <c r="N46" s="5">
+        <v>1237</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="P46" s="6">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="5">
+        <v>4238</v>
+      </c>
+      <c r="J47" s="5">
+        <v>54314</v>
+      </c>
+      <c r="K47" s="5">
+        <v>53991</v>
+      </c>
+      <c r="L47" s="5">
+        <v>53865</v>
+      </c>
+      <c r="M47" s="5">
+        <v>819083618</v>
+      </c>
+      <c r="N47" s="5">
+        <v>1166</v>
+      </c>
+      <c r="O47" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="P47" s="6">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="5">
+        <v>472</v>
+      </c>
+      <c r="J48" s="5">
+        <v>3480</v>
+      </c>
+      <c r="K48" s="5">
+        <v>3445</v>
+      </c>
+      <c r="L48" s="5">
+        <v>3445</v>
+      </c>
+      <c r="M48" s="5">
+        <v>68748319</v>
+      </c>
+      <c r="N48" s="5">
+        <v>1530</v>
+      </c>
+      <c r="O48" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="P48" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="5">
+        <v>2541</v>
+      </c>
+      <c r="J49" s="5">
+        <v>15064</v>
+      </c>
+      <c r="K49" s="5">
+        <v>15071</v>
+      </c>
+      <c r="L49" s="5">
+        <v>14843</v>
+      </c>
+      <c r="M49" s="5">
+        <v>361609785</v>
+      </c>
+      <c r="N49" s="5">
+        <v>1855</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="P49" s="6">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" s="5">
+        <v>4912</v>
+      </c>
+      <c r="J50" s="5">
+        <v>42347</v>
+      </c>
+      <c r="K50" s="5">
+        <v>42325</v>
+      </c>
+      <c r="L50" s="5">
+        <v>42188</v>
+      </c>
+      <c r="M50" s="5">
+        <v>1055937260</v>
+      </c>
+      <c r="N50" s="5">
+        <v>1921</v>
+      </c>
+      <c r="O50" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="P50" s="6">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="5">
+        <v>10526</v>
+      </c>
+      <c r="J51" s="5">
+        <v>54916</v>
+      </c>
+      <c r="K51" s="5">
+        <v>55054</v>
+      </c>
+      <c r="L51" s="5">
+        <v>54913</v>
+      </c>
+      <c r="M51" s="5">
+        <v>778216751</v>
+      </c>
+      <c r="N51" s="5">
+        <v>1089</v>
+      </c>
+      <c r="O51" s="6">
+        <v>1</v>
+      </c>
+      <c r="P51" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="5">
+        <v>2465</v>
+      </c>
+      <c r="J52" s="5">
+        <v>37972</v>
+      </c>
+      <c r="K52" s="5">
+        <v>38165</v>
+      </c>
+      <c r="L52" s="5">
+        <v>37898</v>
+      </c>
+      <c r="M52" s="5">
+        <v>302147069</v>
+      </c>
+      <c r="N52" s="5">
+        <v>611</v>
+      </c>
+      <c r="O52" s="6">
+        <v>1.01</v>
+      </c>
+      <c r="P52" s="6">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="5">
+        <v>2027</v>
+      </c>
+      <c r="J53" s="5">
+        <v>8996</v>
+      </c>
+      <c r="K53" s="5">
+        <v>8947</v>
+      </c>
+      <c r="L53" s="5">
+        <v>8919</v>
+      </c>
+      <c r="M53" s="5">
+        <v>100270212</v>
+      </c>
+      <c r="N53" s="5">
+        <v>861</v>
+      </c>
+      <c r="O53" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="P53" s="6">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" s="5">
+        <v>5</v>
+      </c>
+      <c r="J54" s="5">
+        <v>4</v>
+      </c>
+      <c r="K54" s="5">
+        <v>2</v>
+      </c>
+      <c r="L54" s="5">
+        <v>2</v>
+      </c>
+      <c r="M54" s="5">
+        <v>19150</v>
+      </c>
+      <c r="N54" s="5">
+        <v>552</v>
+      </c>
+      <c r="O54" s="6">
+        <v>0</v>
+      </c>
+      <c r="P54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>